--- a/Project/Project_Checkpoint_2/truth_table_starter.xlsx
+++ b/Project/Project_Checkpoint_2/truth_table_starter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfinegan/Documents/Teaching/CurrentCourses/CMSC301/Project/Checkpoint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F042486-E1D1-9C4D-8F09-9A031C0EC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2C361-75A3-49BF-A719-9C3E291A01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1780" windowWidth="31360" windowHeight="17440" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="8550" yWindow="0" windowWidth="10740" windowHeight="10170" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>instr</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>5:0</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>shamt</t>
+  </si>
+  <si>
+    <t>----immediate----</t>
+  </si>
+  <si>
+    <t>-----immediate-----</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -218,15 +230,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,18 +576,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +609,7 @@
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -615,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +650,7 @@
       <c r="G2">
         <v>100000</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -656,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -678,7 +691,7 @@
       <c r="G3" s="5">
         <v>100010</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
@@ -697,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -710,12 +723,12 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
@@ -731,119 +744,466 @@
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11000</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11010</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10010</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="5">
+        <v>101010</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7">
+        <v>100011</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7">
+        <v>101011</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="7">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7">
+        <v>101</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -853,9 +1213,12 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="11"/>
+      <c r="M17" s="6">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -865,9 +1228,12 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="11"/>
+      <c r="M18" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -877,9 +1243,12 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="11"/>
+      <c r="M19" s="6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -889,45 +1258,48 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="11"/>
+      <c r="M20" s="6">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="G30" s="5"/>
     </row>

--- a/Project/Project_Checkpoint_2/truth_table_starter.xlsx
+++ b/Project/Project_Checkpoint_2/truth_table_starter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2C361-75A3-49BF-A719-9C3E291A01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E05473-550C-4665-A2E0-671DBA43D9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="0" windowWidth="10740" windowHeight="10170" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>instr</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>-----immediate-----</t>
+  </si>
+  <si>
+    <t>-----immediate----</t>
+  </si>
+  <si>
+    <t>11010</t>
   </si>
 </sst>
 </file>
@@ -576,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1199,6 +1205,18 @@
       <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
       <c r="M16" s="6">
         <v>1110</v>
       </c>
@@ -1207,13 +1225,31 @@
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7">
+        <v>11</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
       <c r="M17" s="6">
         <v>1111</v>
       </c>
@@ -1222,13 +1258,39 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
       <c r="M18" s="6">
         <v>10000</v>
       </c>
@@ -1237,13 +1299,39 @@
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1001</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
       <c r="M19" s="6">
         <v>10001</v>
       </c>
@@ -1252,13 +1340,39 @@
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
       <c r="M20" s="6">
         <v>10010</v>
       </c>
